--- a/ExcelConfig/Buildings/10000.xlsx
+++ b/ExcelConfig/Buildings/10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Buildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{745CD0DD-8CB0-4812-918E-1C9523497FC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B4517-B325-4D8D-867F-0FAF67A3850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3795" yWindow="3075" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="1" r:id="rId1"/>
@@ -718,7 +718,7 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -770,13 +770,13 @@
         <v>10000</v>
       </c>
       <c r="C3" s="7">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="D3" s="7">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/ExcelConfig/Buildings/10000.xlsx
+++ b/ExcelConfig/Buildings/10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Buildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC7B4517-B325-4D8D-867F-0FAF67A3850E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082BA6CE-5355-4709-8972-835D56F11C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4830" yWindow="3015" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="3165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="1" r:id="rId1"/>
@@ -74,7 +74,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="15">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -121,6 +121,17 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Array&lt;string&gt;</t>
+  </si>
+  <si>
+    <t>actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lay</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -184,7 +195,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -268,11 +279,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -281,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -715,18 +738,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="10" customWidth="1"/>
+    <col min="6" max="6" width="13.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -742,8 +766,11 @@
       <c r="E1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="F1" s="8" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -759,8 +786,11 @@
       <c r="E2" s="5" t="s">
         <v>11</v>
       </c>
+      <c r="F2" s="5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="6">
         <f>_help!B2+ROW()-3</f>
         <v>10000</v>
@@ -777,12 +807,15 @@
       </c>
       <c r="E3" s="1">
         <v>8</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2" xr:uid="{8FE8CBCC-84A3-4F85-BF46-E311C0E36A4E}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:B2 F2" xr:uid="{8FE8CBCC-84A3-4F85-BF46-E311C0E36A4E}">
       <formula1>"int,string,double,bool,Array&lt;int&gt;,Array&lt;string&gt;,Array&lt;double&gt;,Array&lt;bool&gt;"</formula1>
     </dataValidation>
   </dataValidations>

--- a/ExcelConfig/Buildings/10000.xlsx
+++ b/ExcelConfig/Buildings/10000.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ttt\git\FF\ExcelConfig\Buildings\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{082BA6CE-5355-4709-8972-835D56F11C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13B8D877-ED7F-4786-8D5B-14119D3B76DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="3165" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11415" yWindow="4860" windowWidth="28800" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Background" sheetId="1" r:id="rId1"/>
@@ -334,7 +334,7 @@
             <v>Backgrounds</v>
           </cell>
           <cell r="B2">
-            <v>1</v>
+            <v>0</v>
           </cell>
           <cell r="C2">
             <v>999</v>
@@ -373,7 +373,7 @@
         </row>
         <row r="5">
           <cell r="A5" t="str">
-            <v>Rings</v>
+            <v>Cover</v>
           </cell>
           <cell r="B5">
             <v>3000</v>
@@ -387,7 +387,7 @@
         </row>
         <row r="6">
           <cell r="A6" t="str">
-            <v>Floors</v>
+            <v>Rings</v>
           </cell>
           <cell r="B6">
             <v>4000</v>
@@ -401,7 +401,7 @@
         </row>
         <row r="7">
           <cell r="A7" t="str">
-            <v>Terrains</v>
+            <v>Floors</v>
           </cell>
           <cell r="B7">
             <v>5000</v>
@@ -415,7 +415,7 @@
         </row>
         <row r="8">
           <cell r="A8" t="str">
-            <v>Earth</v>
+            <v>Terrains</v>
           </cell>
           <cell r="B8">
             <v>6000</v>
@@ -429,7 +429,7 @@
         </row>
         <row r="9">
           <cell r="A9" t="str">
-            <v>Characters</v>
+            <v>Earth</v>
           </cell>
           <cell r="B9">
             <v>7000</v>
@@ -443,29 +443,57 @@
         </row>
         <row r="10">
           <cell r="A10" t="str">
-            <v>Buildings</v>
+            <v>Characters</v>
           </cell>
           <cell r="B10">
-            <v>10000</v>
+            <v>8000</v>
           </cell>
           <cell r="C10">
-            <v>19999</v>
+            <v>8999</v>
           </cell>
           <cell r="D10">
-            <v>10000</v>
+            <v>1000</v>
           </cell>
         </row>
         <row r="11">
           <cell r="A11" t="str">
+            <v>MainTrees</v>
+          </cell>
+          <cell r="B11">
+            <v>9000</v>
+          </cell>
+          <cell r="C11">
+            <v>9999</v>
+          </cell>
+          <cell r="D11">
+            <v>1000</v>
+          </cell>
+        </row>
+        <row r="12">
+          <cell r="A12" t="str">
+            <v>Buildings</v>
+          </cell>
+          <cell r="B12">
+            <v>10000</v>
+          </cell>
+          <cell r="C12">
+            <v>19999</v>
+          </cell>
+          <cell r="D12">
+            <v>10000</v>
+          </cell>
+        </row>
+        <row r="13">
+          <cell r="A13" t="str">
             <v>Spheres</v>
           </cell>
-          <cell r="B11">
+          <cell r="B13">
             <v>20000</v>
           </cell>
-          <cell r="C11">
+          <cell r="C13">
             <v>29999</v>
           </cell>
-          <cell r="D11">
+          <cell r="D13">
             <v>10000</v>
           </cell>
         </row>
@@ -741,7 +769,7 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -806,7 +834,7 @@
         <v>6</v>
       </c>
       <c r="E3" s="1">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
